--- a/database/industries/felezat/kimia/product/quarterly.xlsx
+++ b/database/industries/felezat/kimia/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\kimia\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B655BA1-8C25-426E-8997-9B637590E9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کیمیا-معدنی کیمیای زنجان گستران</t>
@@ -36,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,6 +49,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>کنسانتره مس</t>
   </si>
   <si>
@@ -112,6 +113,9 @@
   </si>
   <si>
     <t>ریال / ریال</t>
+  </si>
+  <si>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>مبلغ بهای تمام شده</t>
@@ -123,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,7 +291,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -299,7 +303,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -346,6 +350,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -381,6 +402,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,17 +570,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -552,7 +590,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -564,7 +602,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -576,7 +614,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -586,7 +624,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -598,7 +636,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -610,7 +648,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -620,7 +658,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -642,7 +680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -652,7 +690,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -676,7 +714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -700,7 +738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -709,22 +747,22 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>478</v>
+        <v>1348</v>
       </c>
       <c r="F12" s="9">
-        <v>1348</v>
+        <v>-110</v>
       </c>
       <c r="G12" s="9">
-        <v>-110</v>
+        <v>142</v>
       </c>
       <c r="H12" s="9">
-        <v>142</v>
+        <v>879</v>
       </c>
       <c r="I12" s="9">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -733,22 +771,22 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>224</v>
+        <v>122</v>
       </c>
       <c r="F13" s="11">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="H13" s="11">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="I13" s="11">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -757,22 +795,22 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>940</v>
+        <v>758</v>
       </c>
       <c r="F14" s="9">
-        <v>758</v>
+        <v>548</v>
       </c>
       <c r="G14" s="9">
-        <v>548</v>
+        <v>1780</v>
       </c>
       <c r="H14" s="9">
-        <v>1780</v>
+        <v>2788</v>
       </c>
       <c r="I14" s="9">
-        <v>2788</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -781,22 +819,22 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>636</v>
+        <v>145</v>
       </c>
       <c r="F15" s="11">
-        <v>145</v>
+        <v>837</v>
       </c>
       <c r="G15" s="11">
-        <v>837</v>
+        <v>523</v>
       </c>
       <c r="H15" s="11">
-        <v>523</v>
+        <v>408</v>
       </c>
       <c r="I15" s="11">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -805,22 +843,22 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>17762</v>
+        <v>-165</v>
       </c>
       <c r="F16" s="9">
-        <v>-165</v>
+        <v>17772</v>
       </c>
       <c r="G16" s="9">
-        <v>17772</v>
+        <v>10272</v>
       </c>
       <c r="H16" s="9">
-        <v>10272</v>
+        <v>9994</v>
       </c>
       <c r="I16" s="9">
-        <v>9994</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -829,22 +867,22 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>24260</v>
+        <v>12495</v>
       </c>
       <c r="F17" s="11">
-        <v>12495</v>
+        <v>13056</v>
       </c>
       <c r="G17" s="11">
-        <v>13056</v>
+        <v>20026</v>
       </c>
       <c r="H17" s="11">
-        <v>20026</v>
+        <v>11003</v>
       </c>
       <c r="I17" s="11">
-        <v>11003</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -868,17 +906,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="11">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>12</v>
+      <c r="E19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
       </c>
       <c r="G19" s="11">
         <v>0</v>
@@ -890,29 +928,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>44300</v>
+        <v>14703</v>
       </c>
       <c r="F20" s="13">
-        <v>14703</v>
+        <v>32103</v>
       </c>
       <c r="G20" s="13">
-        <v>32103</v>
+        <v>32964</v>
       </c>
       <c r="H20" s="13">
-        <v>32964</v>
+        <v>25157</v>
       </c>
       <c r="I20" s="13">
-        <v>25157</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11772</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -922,7 +960,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -932,7 +970,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -942,7 +980,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
@@ -964,7 +1002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -974,7 +1012,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>10</v>
       </c>
@@ -998,7 +1036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>14</v>
       </c>
@@ -1007,22 +1045,22 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>478</v>
-      </c>
-      <c r="F27" s="11">
         <v>810</v>
       </c>
+      <c r="F27" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G27" s="11">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="H27" s="11">
-        <v>246</v>
+        <v>775</v>
       </c>
       <c r="I27" s="11">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>24</v>
       </c>
@@ -1046,7 +1084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>15</v>
       </c>
@@ -1055,22 +1093,22 @@
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
-        <v>95</v>
-      </c>
-      <c r="F29" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G29" s="11">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="H29" s="11">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I29" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>16</v>
       </c>
@@ -1079,22 +1117,22 @@
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9">
-        <v>184</v>
-      </c>
-      <c r="F30" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G30" s="9">
-        <v>5470</v>
+        <v>0</v>
       </c>
       <c r="H30" s="9">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="I30" s="9">
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>17</v>
       </c>
@@ -1105,20 +1143,20 @@
       <c r="E31" s="11">
         <v>0</v>
       </c>
-      <c r="F31" s="11">
-        <v>0</v>
+      <c r="F31" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G31" s="11">
-        <v>1719</v>
+        <v>188</v>
       </c>
       <c r="H31" s="11">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="I31" s="11">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>18</v>
       </c>
@@ -1127,22 +1165,22 @@
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9">
-        <v>15980</v>
-      </c>
-      <c r="F32" s="9">
         <v>3748</v>
       </c>
+      <c r="F32" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G32" s="9">
-        <v>9149</v>
+        <v>7143</v>
       </c>
       <c r="H32" s="9">
-        <v>7143</v>
+        <v>9578</v>
       </c>
       <c r="I32" s="9">
-        <v>9578</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>19</v>
       </c>
@@ -1151,22 +1189,22 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>34628</v>
-      </c>
-      <c r="F33" s="11">
         <v>12495</v>
       </c>
+      <c r="F33" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G33" s="11">
-        <v>13056</v>
+        <v>20026</v>
       </c>
       <c r="H33" s="11">
-        <v>20026</v>
+        <v>11003</v>
       </c>
       <c r="I33" s="11">
-        <v>11003</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>20</v>
       </c>
@@ -1190,14 +1228,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="11">
-        <v>0</v>
+      <c r="E35" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>12</v>
@@ -1212,29 +1250,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>51365</v>
+        <v>17053</v>
       </c>
       <c r="F36" s="13">
-        <v>17053</v>
+        <v>0</v>
       </c>
       <c r="G36" s="13">
-        <v>29810</v>
+        <v>27603</v>
       </c>
       <c r="H36" s="13">
-        <v>27603</v>
+        <v>25896</v>
       </c>
       <c r="I36" s="13">
-        <v>25896</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12933</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1244,7 +1282,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1254,7 +1292,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1264,7 +1302,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>26</v>
       </c>
@@ -1286,7 +1324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1296,7 +1334,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>10</v>
       </c>
@@ -1320,7 +1358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>14</v>
       </c>
@@ -1329,22 +1367,22 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>308221</v>
-      </c>
-      <c r="F43" s="11">
         <v>581207</v>
       </c>
+      <c r="F43" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G43" s="11">
-        <v>260509</v>
+        <v>214709</v>
       </c>
       <c r="H43" s="11">
-        <v>214709</v>
+        <v>654438</v>
       </c>
       <c r="I43" s="11">
-        <v>654438</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>34352</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>24</v>
       </c>
@@ -1368,7 +1406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>15</v>
       </c>
@@ -1377,22 +1415,22 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>66370</v>
-      </c>
-      <c r="F45" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G45" s="11">
-        <v>74291</v>
+        <v>0</v>
       </c>
       <c r="H45" s="11">
-        <v>0</v>
+        <v>23381</v>
       </c>
       <c r="I45" s="11">
-        <v>23381</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4564</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>16</v>
       </c>
@@ -1401,22 +1439,22 @@
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
-        <v>20634</v>
-      </c>
-      <c r="F46" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G46" s="9">
-        <v>461636</v>
+        <v>0</v>
       </c>
       <c r="H46" s="9">
-        <v>0</v>
+        <v>857115</v>
       </c>
       <c r="I46" s="9">
-        <v>857115</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>758162</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>17</v>
       </c>
@@ -1427,20 +1465,20 @@
       <c r="E47" s="11">
         <v>0</v>
       </c>
-      <c r="F47" s="11">
-        <v>0</v>
+      <c r="F47" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G47" s="11">
-        <v>607822</v>
+        <v>54111</v>
       </c>
       <c r="H47" s="11">
-        <v>54111</v>
+        <v>38584</v>
       </c>
       <c r="I47" s="11">
-        <v>38584</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>18</v>
       </c>
@@ -1449,22 +1487,22 @@
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
-        <v>1546418</v>
-      </c>
-      <c r="F48" s="9">
         <v>330488</v>
       </c>
+      <c r="F48" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G48" s="9">
-        <v>1222312</v>
+        <v>867015</v>
       </c>
       <c r="H48" s="9">
-        <v>867015</v>
+        <v>995279</v>
       </c>
       <c r="I48" s="9">
-        <v>995279</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>277323</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>19</v>
       </c>
@@ -1473,22 +1511,22 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>222580</v>
-      </c>
-      <c r="F49" s="11">
         <v>137445</v>
       </c>
+      <c r="F49" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G49" s="11">
-        <v>143609</v>
+        <v>280369</v>
       </c>
       <c r="H49" s="11">
-        <v>280369</v>
+        <v>154042</v>
       </c>
       <c r="I49" s="11">
-        <v>154042</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>76992</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>20</v>
       </c>
@@ -1512,7 +1550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>21</v>
       </c>
@@ -1520,8 +1558,8 @@
         <v>27</v>
       </c>
       <c r="D51" s="11"/>
-      <c r="E51" s="11">
-        <v>0</v>
+      <c r="E51" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>12</v>
@@ -1536,29 +1574,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
-        <v>2164223</v>
+        <v>1049140</v>
       </c>
       <c r="F52" s="13">
-        <v>1049140</v>
+        <v>0</v>
       </c>
       <c r="G52" s="13">
-        <v>2770179</v>
+        <v>1416204</v>
       </c>
       <c r="H52" s="13">
-        <v>1416204</v>
+        <v>2722839</v>
       </c>
       <c r="I52" s="13">
-        <v>2722839</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1155263</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1568,7 +1606,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1578,7 +1616,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1588,7 +1626,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>28</v>
       </c>
@@ -1610,7 +1648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1620,7 +1658,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>10</v>
       </c>
@@ -1644,7 +1682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>14</v>
       </c>
@@ -1653,22 +1691,22 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>644813808</v>
+        <v>717539506</v>
       </c>
       <c r="F59" s="11">
-        <v>717539506</v>
+        <v>883081356</v>
       </c>
       <c r="G59" s="11">
-        <v>883081356</v>
+        <v>872800813</v>
       </c>
       <c r="H59" s="11">
-        <v>872800813</v>
+        <v>844436129</v>
       </c>
       <c r="I59" s="11">
-        <v>844436129</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1073500000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>24</v>
       </c>
@@ -1692,7 +1730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>15</v>
       </c>
@@ -1700,23 +1738,23 @@
         <v>29</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11">
-        <v>698631579</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="11">
+      <c r="E61" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="11">
         <v>613975207</v>
       </c>
-      <c r="H61" s="11" t="s">
-        <v>12</v>
+      <c r="G61" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="11">
+        <v>334014286</v>
       </c>
       <c r="I61" s="11">
-        <v>334014286</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>351076923</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>16</v>
       </c>
@@ -1724,23 +1762,23 @@
         <v>29</v>
       </c>
       <c r="D62" s="9"/>
-      <c r="E62" s="9">
-        <v>112141304</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="9">
+      <c r="E62" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="9">
         <v>84394150</v>
       </c>
-      <c r="H62" s="9" t="s">
-        <v>12</v>
+      <c r="G62" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="9">
+        <v>199329070</v>
       </c>
       <c r="I62" s="9">
-        <v>199329070</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>175419250</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>17</v>
       </c>
@@ -1751,20 +1789,20 @@
       <c r="E63" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="11" t="s">
-        <v>12</v>
+      <c r="F63" s="11">
+        <v>353590460</v>
       </c>
       <c r="G63" s="11">
-        <v>353590460</v>
+        <v>287824468</v>
       </c>
       <c r="H63" s="11">
-        <v>287824468</v>
+        <v>226964706</v>
       </c>
       <c r="I63" s="11">
-        <v>226964706</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>227647059</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>18</v>
       </c>
@@ -1773,22 +1811,22 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>96772090</v>
+        <v>88177161</v>
       </c>
       <c r="F64" s="9">
-        <v>88177161</v>
+        <v>133600612</v>
       </c>
       <c r="G64" s="9">
-        <v>133600612</v>
+        <v>121379672</v>
       </c>
       <c r="H64" s="9">
-        <v>121379672</v>
+        <v>103913030</v>
       </c>
       <c r="I64" s="9">
-        <v>103913030</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>90955395</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>19</v>
       </c>
@@ -1797,22 +1835,22 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
-        <v>6427746</v>
+        <v>11000000</v>
       </c>
       <c r="F65" s="11">
-        <v>11000000</v>
+        <v>10999464</v>
       </c>
       <c r="G65" s="11">
-        <v>10999464</v>
+        <v>14000250</v>
       </c>
       <c r="H65" s="11">
-        <v>14000250</v>
+        <v>14000000</v>
       </c>
       <c r="I65" s="11">
-        <v>14000000</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13998545</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>20</v>
       </c>
@@ -1836,12 +1874,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
@@ -1860,7 +1898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1870,7 +1908,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1880,7 +1918,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1890,9 +1928,9 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -1912,7 +1950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1922,7 +1960,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>14</v>
       </c>
@@ -1931,22 +1969,22 @@
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
-        <v>-302478</v>
+        <v>-444207</v>
       </c>
       <c r="F73" s="9">
-        <v>-444207</v>
+        <v>-162078</v>
       </c>
       <c r="G73" s="9">
-        <v>-162078</v>
+        <v>-147448</v>
       </c>
       <c r="H73" s="9">
-        <v>-147448</v>
+        <v>-522732</v>
       </c>
       <c r="I73" s="9">
-        <v>-522732</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-68900</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>24</v>
       </c>
@@ -1970,7 +2008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>15</v>
       </c>
@@ -1979,22 +2017,22 @@
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
-        <v>-45767</v>
+        <v>-12127</v>
       </c>
       <c r="F75" s="9">
-        <v>-12127</v>
+        <v>-31474</v>
       </c>
       <c r="G75" s="9">
-        <v>-31474</v>
+        <v>0</v>
       </c>
       <c r="H75" s="9">
-        <v>0</v>
+        <v>-23143</v>
       </c>
       <c r="I75" s="9">
-        <v>-23143</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4320</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>16</v>
       </c>
@@ -2003,22 +2041,22 @@
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
-        <v>-20161</v>
+        <v>-157</v>
       </c>
       <c r="F76" s="11">
-        <v>-157</v>
+        <v>-437032</v>
       </c>
       <c r="G76" s="11">
-        <v>-437032</v>
+        <v>0</v>
       </c>
       <c r="H76" s="11">
-        <v>0</v>
+        <v>-547923</v>
       </c>
       <c r="I76" s="11">
-        <v>-547923</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-499133</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>17</v>
       </c>
@@ -2027,22 +2065,22 @@
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <v>19945</v>
+        <v>-17032</v>
       </c>
       <c r="F77" s="9">
-        <v>-17032</v>
+        <v>-379413</v>
       </c>
       <c r="G77" s="9">
-        <v>-379413</v>
+        <v>-33268</v>
       </c>
       <c r="H77" s="9">
-        <v>-33268</v>
+        <v>-38387</v>
       </c>
       <c r="I77" s="9">
-        <v>-38387</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-111</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>18</v>
       </c>
@@ -2051,22 +2089,22 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>-1025388</v>
+        <v>-213078</v>
       </c>
       <c r="F78" s="11">
-        <v>-213078</v>
+        <v>-1113947</v>
       </c>
       <c r="G78" s="11">
-        <v>-1113947</v>
+        <v>-771504</v>
       </c>
       <c r="H78" s="11">
-        <v>-771504</v>
+        <v>-622484</v>
       </c>
       <c r="I78" s="11">
-        <v>-622484</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-148201</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>19</v>
       </c>
@@ -2075,22 +2113,22 @@
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
-        <v>-32010</v>
+        <v>-36323</v>
       </c>
       <c r="F79" s="9">
-        <v>-36323</v>
+        <v>-27502</v>
       </c>
       <c r="G79" s="9">
-        <v>-27502</v>
+        <v>-30463</v>
       </c>
       <c r="H79" s="9">
-        <v>-30463</v>
+        <v>-43556</v>
       </c>
       <c r="I79" s="9">
-        <v>-43556</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-30676</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>21</v>
       </c>
@@ -2098,11 +2136,11 @@
         <v>27</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11">
-        <v>0</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>12</v>
+      <c r="E80" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="11">
+        <v>0</v>
       </c>
       <c r="G80" s="11">
         <v>0</v>
@@ -2114,29 +2152,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
-        <v>-1405859</v>
+        <v>-722924</v>
       </c>
       <c r="F81" s="13">
-        <v>-722924</v>
+        <v>-2151446</v>
       </c>
       <c r="G81" s="13">
-        <v>-2151446</v>
+        <v>-982683</v>
       </c>
       <c r="H81" s="13">
-        <v>-982683</v>
+        <v>-1798225</v>
       </c>
       <c r="I81" s="13">
-        <v>-1798225</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-751341</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2146,7 +2184,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2156,7 +2194,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2166,9 +2204,9 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B85" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -2188,7 +2226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2198,7 +2236,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>14</v>
       </c>
@@ -2207,22 +2245,22 @@
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
-        <v>5743</v>
+        <v>137000</v>
       </c>
       <c r="F87" s="9">
-        <v>137000</v>
+        <v>98431</v>
       </c>
       <c r="G87" s="9">
-        <v>98431</v>
+        <v>67261</v>
       </c>
       <c r="H87" s="9">
-        <v>67261</v>
+        <v>131706</v>
       </c>
       <c r="I87" s="9">
-        <v>131706</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-34548</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>24</v>
       </c>
@@ -2246,7 +2284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>15</v>
       </c>
@@ -2255,22 +2293,22 @@
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
-        <v>20603</v>
+        <v>-12127</v>
       </c>
       <c r="F89" s="9">
-        <v>-12127</v>
+        <v>42817</v>
       </c>
       <c r="G89" s="9">
-        <v>42817</v>
+        <v>0</v>
       </c>
       <c r="H89" s="9">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="I89" s="9">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>16</v>
       </c>
@@ -2279,22 +2317,22 @@
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>473</v>
+        <v>-157</v>
       </c>
       <c r="F90" s="11">
-        <v>-157</v>
+        <v>24604</v>
       </c>
       <c r="G90" s="11">
-        <v>24604</v>
+        <v>0</v>
       </c>
       <c r="H90" s="11">
-        <v>0</v>
+        <v>309192</v>
       </c>
       <c r="I90" s="11">
-        <v>309192</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>259029</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>17</v>
       </c>
@@ -2303,22 +2341,22 @@
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>19945</v>
+        <v>-17032</v>
       </c>
       <c r="F91" s="9">
-        <v>-17032</v>
+        <v>228409</v>
       </c>
       <c r="G91" s="9">
-        <v>228409</v>
+        <v>20843</v>
       </c>
       <c r="H91" s="9">
-        <v>20843</v>
+        <v>197</v>
       </c>
       <c r="I91" s="9">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>18</v>
       </c>
@@ -2327,22 +2365,22 @@
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
-        <v>521030</v>
+        <v>117410</v>
       </c>
       <c r="F92" s="11">
-        <v>117410</v>
+        <v>108365</v>
       </c>
       <c r="G92" s="11">
-        <v>108365</v>
+        <v>95511</v>
       </c>
       <c r="H92" s="11">
-        <v>95511</v>
+        <v>372795</v>
       </c>
       <c r="I92" s="11">
-        <v>372795</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>129122</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>19</v>
       </c>
@@ -2351,22 +2389,22 @@
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
-        <v>190570</v>
+        <v>101122</v>
       </c>
       <c r="F93" s="9">
-        <v>101122</v>
+        <v>116107</v>
       </c>
       <c r="G93" s="9">
-        <v>116107</v>
+        <v>249906</v>
       </c>
       <c r="H93" s="9">
-        <v>249906</v>
+        <v>110486</v>
       </c>
       <c r="I93" s="9">
-        <v>110486</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>46316</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>21</v>
       </c>
@@ -2374,11 +2412,11 @@
         <v>27</v>
       </c>
       <c r="D94" s="11"/>
-      <c r="E94" s="11">
-        <v>0</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>12</v>
+      <c r="E94" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="11">
+        <v>0</v>
       </c>
       <c r="G94" s="11">
         <v>0</v>
@@ -2390,26 +2428,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
-        <v>758364</v>
+        <v>326216</v>
       </c>
       <c r="F95" s="13">
-        <v>326216</v>
+        <v>618733</v>
       </c>
       <c r="G95" s="13">
-        <v>618733</v>
+        <v>433521</v>
       </c>
       <c r="H95" s="13">
-        <v>433521</v>
+        <v>924614</v>
       </c>
       <c r="I95" s="13">
-        <v>924614</v>
+        <v>403922</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/felezat/kimia/product/quarterly.xlsx
+++ b/database/industries/felezat/kimia/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\kimia\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\kimia\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B655BA1-8C25-426E-8997-9B637590E9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5715613D-9B43-4DEF-8A02-83F22FD92EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="39">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -571,16 +586,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I95"/>
+  <dimension ref="B1:N95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -589,8 +604,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -601,8 +621,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -613,8 +638,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -623,8 +653,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -635,8 +670,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -647,8 +687,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -657,8 +702,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -679,8 +729,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -689,268 +754,438 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="9">
+        <v>478</v>
+      </c>
+      <c r="J12" s="9">
         <v>1348</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>-110</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>142</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>879</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>46</v>
+      </c>
+      <c r="F13" s="11">
+        <v>17</v>
+      </c>
+      <c r="G13" s="11">
+        <v>260</v>
+      </c>
+      <c r="H13" s="11">
+        <v>107</v>
+      </c>
+      <c r="I13" s="11">
+        <v>224</v>
+      </c>
+      <c r="J13" s="11">
         <v>122</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
         <v>221</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>85</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>626</v>
+      </c>
+      <c r="F14" s="9">
+        <v>4183</v>
+      </c>
+      <c r="G14" s="9">
+        <v>2341</v>
+      </c>
+      <c r="H14" s="9">
+        <v>558</v>
+      </c>
+      <c r="I14" s="9">
+        <v>940</v>
+      </c>
+      <c r="J14" s="9">
         <v>758</v>
       </c>
-      <c r="F14" s="9">
+      <c r="K14" s="9">
         <v>548</v>
       </c>
-      <c r="G14" s="9">
+      <c r="L14" s="9">
         <v>1780</v>
       </c>
-      <c r="H14" s="9">
+      <c r="M14" s="9">
         <v>2788</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>2343</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>297</v>
+      </c>
+      <c r="F15" s="11">
+        <v>416</v>
+      </c>
+      <c r="G15" s="11">
+        <v>692</v>
+      </c>
+      <c r="H15" s="11">
+        <v>278</v>
+      </c>
+      <c r="I15" s="11">
+        <v>636</v>
+      </c>
+      <c r="J15" s="11">
         <v>145</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>837</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>523</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>408</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>5375</v>
+      </c>
+      <c r="F16" s="9">
+        <v>6114</v>
+      </c>
+      <c r="G16" s="9">
+        <v>23806</v>
+      </c>
+      <c r="H16" s="9">
+        <v>9845</v>
+      </c>
+      <c r="I16" s="9">
+        <v>17762</v>
+      </c>
+      <c r="J16" s="9">
         <v>-165</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>17772</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>10272</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>9994</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>3675</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>34633</v>
+      </c>
+      <c r="F17" s="11">
+        <v>12189</v>
+      </c>
+      <c r="G17" s="11">
+        <v>771</v>
+      </c>
+      <c r="H17" s="11">
+        <v>10368</v>
+      </c>
+      <c r="I17" s="11">
+        <v>24260</v>
+      </c>
+      <c r="J17" s="11">
         <v>12495</v>
       </c>
-      <c r="F17" s="11">
+      <c r="K17" s="11">
         <v>13056</v>
       </c>
-      <c r="G17" s="11">
+      <c r="L17" s="11">
         <v>20026</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>11003</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>5500</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
+        <v>40977</v>
+      </c>
+      <c r="F20" s="13">
+        <v>22919</v>
+      </c>
+      <c r="G20" s="13">
+        <v>27870</v>
+      </c>
+      <c r="H20" s="13">
+        <v>21156</v>
+      </c>
+      <c r="I20" s="13">
+        <v>44300</v>
+      </c>
+      <c r="J20" s="13">
         <v>14703</v>
       </c>
-      <c r="F20" s="13">
+      <c r="K20" s="13">
         <v>32103</v>
       </c>
-      <c r="G20" s="13">
+      <c r="L20" s="13">
         <v>32964</v>
       </c>
-      <c r="H20" s="13">
+      <c r="M20" s="13">
         <v>25157</v>
       </c>
-      <c r="I20" s="13">
+      <c r="N20" s="13">
         <v>11772</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -959,8 +1194,13 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -969,8 +1209,13 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -979,10 +1224,15 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1001,8 +1251,23 @@
       <c r="I24" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1011,268 +1276,438 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
+        <v>50</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>478</v>
+      </c>
+      <c r="J27" s="11">
         <v>810</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="11">
+      <c r="K27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="11">
         <v>246</v>
       </c>
-      <c r="H27" s="11">
+      <c r="M27" s="11">
         <v>775</v>
       </c>
-      <c r="I27" s="11">
+      <c r="N27" s="11">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>12</v>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
-        <v>0</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0</v>
       </c>
       <c r="G29" s="11">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
+        <v>95</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
         <v>70</v>
       </c>
-      <c r="I29" s="11">
+      <c r="N29" s="11">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9">
         <v>0</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>12</v>
+      <c r="F30" s="9">
+        <v>0</v>
       </c>
       <c r="G30" s="9">
-        <v>0</v>
+        <v>6070</v>
       </c>
       <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9">
+        <v>184</v>
+      </c>
+      <c r="J30" s="9">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="9">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9">
         <v>4300</v>
       </c>
-      <c r="I30" s="9">
+      <c r="N30" s="9">
         <v>4322</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>0</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>12</v>
+        <v>422</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0</v>
       </c>
       <c r="G31" s="11">
+        <v>740</v>
+      </c>
+      <c r="H31" s="11">
+        <v>406</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="11">
         <v>188</v>
       </c>
-      <c r="H31" s="11">
+      <c r="M31" s="11">
         <v>170</v>
       </c>
-      <c r="I31" s="11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N31" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9">
+        <v>8391</v>
+      </c>
+      <c r="F32" s="9">
+        <v>6080</v>
+      </c>
+      <c r="G32" s="9">
+        <v>24147</v>
+      </c>
+      <c r="H32" s="9">
+        <v>9573</v>
+      </c>
+      <c r="I32" s="9">
+        <v>15980</v>
+      </c>
+      <c r="J32" s="9">
         <v>3748</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="9">
+      <c r="K32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="9">
         <v>7143</v>
       </c>
-      <c r="H32" s="9">
+      <c r="M32" s="9">
         <v>9578</v>
       </c>
-      <c r="I32" s="9">
+      <c r="N32" s="9">
         <v>3049</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>34628</v>
+      </c>
+      <c r="J33" s="11">
         <v>12495</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="11">
+      <c r="K33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="11">
         <v>20026</v>
       </c>
-      <c r="H33" s="11">
+      <c r="M33" s="11">
         <v>11003</v>
       </c>
-      <c r="I33" s="11">
+      <c r="N33" s="11">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>12</v>
+      <c r="E35" s="11">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0</v>
       </c>
       <c r="G35" s="11">
         <v>0</v>
       </c>
-      <c r="H35" s="11">
-        <v>0</v>
+      <c r="H35" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I35" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
+        <v>0</v>
+      </c>
+      <c r="N35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
+        <v>8892</v>
+      </c>
+      <c r="F36" s="13">
+        <v>6080</v>
+      </c>
+      <c r="G36" s="13">
+        <v>31119</v>
+      </c>
+      <c r="H36" s="13">
+        <v>9979</v>
+      </c>
+      <c r="I36" s="13">
+        <v>51365</v>
+      </c>
+      <c r="J36" s="13">
         <v>17053</v>
       </c>
-      <c r="F36" s="13">
-        <v>0</v>
-      </c>
-      <c r="G36" s="13">
+      <c r="K36" s="13">
+        <v>0</v>
+      </c>
+      <c r="L36" s="13">
         <v>27603</v>
       </c>
-      <c r="H36" s="13">
+      <c r="M36" s="13">
         <v>25896</v>
       </c>
-      <c r="I36" s="13">
+      <c r="N36" s="13">
         <v>12933</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1281,8 +1716,13 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1291,8 +1731,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1301,10 +1746,15 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1323,8 +1773,23 @@
       <c r="I40" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1333,270 +1798,440 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
+        <v>26257</v>
+      </c>
+      <c r="F43" s="11">
+        <v>1</v>
+      </c>
+      <c r="G43" s="11">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+      <c r="I43" s="11">
+        <v>308221</v>
+      </c>
+      <c r="J43" s="11">
         <v>581207</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="11">
+      <c r="K43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="11">
         <v>214709</v>
       </c>
-      <c r="H43" s="11">
+      <c r="M43" s="11">
         <v>654438</v>
       </c>
-      <c r="I43" s="11">
+      <c r="N43" s="11">
         <v>34352</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>12</v>
+      <c r="E44" s="9">
+        <v>0</v>
+      </c>
+      <c r="F44" s="9">
+        <v>172</v>
+      </c>
+      <c r="G44" s="9">
+        <v>-172</v>
+      </c>
+      <c r="H44" s="9">
+        <v>0</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>0</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>12</v>
+        <v>11839</v>
+      </c>
+      <c r="F45" s="11">
+        <v>0</v>
       </c>
       <c r="G45" s="11">
-        <v>0</v>
+        <v>84839</v>
       </c>
       <c r="H45" s="11">
+        <v>0</v>
+      </c>
+      <c r="I45" s="11">
+        <v>66370</v>
+      </c>
+      <c r="J45" s="11">
+        <v>0</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="11">
+        <v>0</v>
+      </c>
+      <c r="M45" s="11">
         <v>23381</v>
       </c>
-      <c r="I45" s="11">
+      <c r="N45" s="11">
         <v>4564</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
         <v>0</v>
       </c>
-      <c r="F46" s="9" t="s">
-        <v>12</v>
+      <c r="F46" s="9">
+        <v>0</v>
       </c>
       <c r="G46" s="9">
-        <v>0</v>
+        <v>714061</v>
       </c>
       <c r="H46" s="9">
+        <v>0</v>
+      </c>
+      <c r="I46" s="9">
+        <v>20634</v>
+      </c>
+      <c r="J46" s="9">
+        <v>0</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" s="9">
+        <v>0</v>
+      </c>
+      <c r="M46" s="9">
         <v>857115</v>
       </c>
-      <c r="I46" s="9">
+      <c r="N46" s="9">
         <v>758162</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>0</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>12</v>
+        <v>75329</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0</v>
       </c>
       <c r="G47" s="11">
+        <v>222239</v>
+      </c>
+      <c r="H47" s="11">
+        <v>116399</v>
+      </c>
+      <c r="I47" s="11">
+        <v>0</v>
+      </c>
+      <c r="J47" s="11">
+        <v>0</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="11">
         <v>54111</v>
       </c>
-      <c r="H47" s="11">
+      <c r="M47" s="11">
         <v>38584</v>
       </c>
-      <c r="I47" s="11">
+      <c r="N47" s="11">
         <v>3870</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
+        <v>285345</v>
+      </c>
+      <c r="F48" s="9">
+        <v>554996</v>
+      </c>
+      <c r="G48" s="9">
+        <v>1642561</v>
+      </c>
+      <c r="H48" s="9">
+        <v>891912</v>
+      </c>
+      <c r="I48" s="9">
+        <v>1546418</v>
+      </c>
+      <c r="J48" s="9">
         <v>330488</v>
       </c>
-      <c r="F48" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="9">
+      <c r="K48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="9">
         <v>867015</v>
       </c>
-      <c r="H48" s="9">
+      <c r="M48" s="9">
         <v>995279</v>
       </c>
-      <c r="I48" s="9">
+      <c r="N48" s="9">
         <v>277323</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
+        <v>157463</v>
+      </c>
+      <c r="F49" s="11">
+        <v>96685</v>
+      </c>
+      <c r="G49" s="11">
+        <v>3318</v>
+      </c>
+      <c r="H49" s="11">
+        <v>87094</v>
+      </c>
+      <c r="I49" s="11">
+        <v>222580</v>
+      </c>
+      <c r="J49" s="11">
         <v>137445</v>
       </c>
-      <c r="F49" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="11">
+      <c r="K49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="11">
         <v>280369</v>
       </c>
-      <c r="H49" s="11">
+      <c r="M49" s="11">
         <v>154042</v>
       </c>
-      <c r="I49" s="11">
+      <c r="N49" s="11">
         <v>76992</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C51" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11">
+        <v>0</v>
+      </c>
+      <c r="F51" s="11">
+        <v>172</v>
+      </c>
+      <c r="G51" s="11">
+        <v>0</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="11">
+        <v>0</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="11">
+        <v>0</v>
+      </c>
+      <c r="M51" s="11">
+        <v>0</v>
+      </c>
+      <c r="N51" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="11">
-        <v>0</v>
-      </c>
-      <c r="H51" s="11">
-        <v>0</v>
-      </c>
-      <c r="I51" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
+        <v>556233</v>
+      </c>
+      <c r="F52" s="13">
+        <v>652026</v>
+      </c>
+      <c r="G52" s="13">
+        <v>2666846</v>
+      </c>
+      <c r="H52" s="13">
+        <v>1095405</v>
+      </c>
+      <c r="I52" s="13">
+        <v>2164223</v>
+      </c>
+      <c r="J52" s="13">
         <v>1049140</v>
       </c>
-      <c r="F52" s="13">
-        <v>0</v>
-      </c>
-      <c r="G52" s="13">
+      <c r="K52" s="13">
+        <v>0</v>
+      </c>
+      <c r="L52" s="13">
         <v>1416204</v>
       </c>
-      <c r="H52" s="13">
+      <c r="M52" s="13">
         <v>2722839</v>
       </c>
-      <c r="I52" s="13">
+      <c r="N52" s="13">
         <v>1155263</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1605,8 +2240,13 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1615,8 +2255,13 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1625,10 +2270,15 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -1647,8 +2297,23 @@
       <c r="I56" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1657,248 +2322,403 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
+        <v>525140000</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="11">
+        <v>644813808</v>
+      </c>
+      <c r="J59" s="11">
         <v>717539506</v>
       </c>
-      <c r="F59" s="11">
+      <c r="K59" s="11">
         <v>883081356</v>
       </c>
-      <c r="G59" s="11">
+      <c r="L59" s="11">
         <v>872800813</v>
       </c>
-      <c r="H59" s="11">
+      <c r="M59" s="11">
         <v>844436129</v>
       </c>
-      <c r="I59" s="11">
+      <c r="N59" s="11">
         <v>1073500000</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N60" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="11">
+      <c r="E61" s="11">
+        <v>408241379</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="11">
+        <v>523697531</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="11">
+        <v>698631579</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" s="11">
         <v>613975207</v>
       </c>
-      <c r="G61" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="11">
+      <c r="L61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M61" s="11">
         <v>334014286</v>
       </c>
-      <c r="I61" s="11">
+      <c r="N61" s="11">
         <v>351076923</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="9">
+        <v>17</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="9">
+        <v>117637727</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" s="9">
+        <v>112141304</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="9">
         <v>84394150</v>
       </c>
-      <c r="G62" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="9">
+      <c r="L62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M62" s="9">
         <v>199329070</v>
       </c>
-      <c r="I62" s="9">
+      <c r="N62" s="9">
         <v>175419250</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D63" s="11"/>
-      <c r="E63" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="11">
+      <c r="E63" s="11">
+        <v>178504739</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="11">
+        <v>300322973</v>
+      </c>
+      <c r="H63" s="11">
+        <v>286697044</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" s="11">
         <v>353590460</v>
       </c>
-      <c r="G63" s="11">
+      <c r="L63" s="11">
         <v>287824468</v>
       </c>
-      <c r="H63" s="11">
+      <c r="M63" s="11">
         <v>226964706</v>
       </c>
-      <c r="I63" s="11">
+      <c r="N63" s="11">
         <v>227647059</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
+        <v>34006078</v>
+      </c>
+      <c r="F64" s="9">
+        <v>91282237</v>
+      </c>
+      <c r="G64" s="9">
+        <v>68023398</v>
+      </c>
+      <c r="H64" s="9">
+        <v>93169539</v>
+      </c>
+      <c r="I64" s="9">
+        <v>96772090</v>
+      </c>
+      <c r="J64" s="9">
         <v>88177161</v>
       </c>
-      <c r="F64" s="9">
+      <c r="K64" s="9">
         <v>133600612</v>
       </c>
-      <c r="G64" s="9">
+      <c r="L64" s="9">
         <v>121379672</v>
       </c>
-      <c r="H64" s="9">
+      <c r="M64" s="9">
         <v>103913030</v>
       </c>
-      <c r="I64" s="9">
+      <c r="N64" s="9">
         <v>90955395</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="11">
+      <c r="E65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" s="11">
+        <v>6427746</v>
+      </c>
+      <c r="J65" s="11">
         <v>11000000</v>
       </c>
-      <c r="F65" s="11">
+      <c r="K65" s="11">
         <v>10999464</v>
       </c>
-      <c r="G65" s="11">
+      <c r="L65" s="11">
         <v>14000250</v>
       </c>
-      <c r="H65" s="11">
+      <c r="M65" s="11">
         <v>14000000</v>
       </c>
-      <c r="I65" s="11">
+      <c r="N65" s="11">
         <v>13998545</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1907,8 +2727,13 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1917,8 +2742,13 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1927,10 +2757,15 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -1949,8 +2784,23 @@
       <c r="I71" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1959,222 +2809,362 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
+        <v>-13284</v>
+      </c>
+      <c r="F73" s="9">
+        <v>0</v>
+      </c>
+      <c r="G73" s="9">
+        <v>0</v>
+      </c>
+      <c r="H73" s="9">
+        <v>0</v>
+      </c>
+      <c r="I73" s="9">
+        <v>-302478</v>
+      </c>
+      <c r="J73" s="9">
         <v>-444207</v>
       </c>
-      <c r="F73" s="9">
+      <c r="K73" s="9">
         <v>-162078</v>
       </c>
-      <c r="G73" s="9">
+      <c r="L73" s="9">
         <v>-147448</v>
       </c>
-      <c r="H73" s="9">
+      <c r="M73" s="9">
         <v>-522732</v>
       </c>
-      <c r="I73" s="9">
+      <c r="N73" s="9">
         <v>-68900</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D74" s="11"/>
-      <c r="E74" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="11" t="s">
-        <v>12</v>
+      <c r="E74" s="11">
+        <v>0</v>
+      </c>
+      <c r="F74" s="11">
+        <v>0</v>
+      </c>
+      <c r="G74" s="11">
+        <v>0</v>
+      </c>
+      <c r="H74" s="11">
+        <v>0</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
+        <v>-12273</v>
+      </c>
+      <c r="F75" s="9">
+        <v>3213</v>
+      </c>
+      <c r="G75" s="9">
+        <v>-51636</v>
+      </c>
+      <c r="H75" s="9">
+        <v>0</v>
+      </c>
+      <c r="I75" s="9">
+        <v>-45767</v>
+      </c>
+      <c r="J75" s="9">
         <v>-12127</v>
       </c>
-      <c r="F75" s="9">
+      <c r="K75" s="9">
         <v>-31474</v>
       </c>
-      <c r="G75" s="9">
-        <v>0</v>
-      </c>
-      <c r="H75" s="9">
+      <c r="L75" s="9">
+        <v>0</v>
+      </c>
+      <c r="M75" s="9">
         <v>-23143</v>
       </c>
-      <c r="I75" s="9">
+      <c r="N75" s="9">
         <v>-4320</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
+        <v>0</v>
+      </c>
+      <c r="F76" s="11">
+        <v>0</v>
+      </c>
+      <c r="G76" s="11">
+        <v>-546259</v>
+      </c>
+      <c r="H76" s="11">
+        <v>0</v>
+      </c>
+      <c r="I76" s="11">
+        <v>-20161</v>
+      </c>
+      <c r="J76" s="11">
         <v>-157</v>
       </c>
-      <c r="F76" s="11">
+      <c r="K76" s="11">
         <v>-437032</v>
       </c>
-      <c r="G76" s="11">
-        <v>0</v>
-      </c>
-      <c r="H76" s="11">
+      <c r="L76" s="11">
+        <v>0</v>
+      </c>
+      <c r="M76" s="11">
         <v>-547923</v>
       </c>
-      <c r="I76" s="11">
+      <c r="N76" s="11">
         <v>-499133</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
+        <v>-67582</v>
+      </c>
+      <c r="F77" s="9">
+        <v>10118</v>
+      </c>
+      <c r="G77" s="9">
+        <v>-120140</v>
+      </c>
+      <c r="H77" s="9">
+        <v>-102630</v>
+      </c>
+      <c r="I77" s="9">
+        <v>19945</v>
+      </c>
+      <c r="J77" s="9">
         <v>-17032</v>
       </c>
-      <c r="F77" s="9">
+      <c r="K77" s="9">
         <v>-379413</v>
       </c>
-      <c r="G77" s="9">
+      <c r="L77" s="9">
         <v>-33268</v>
       </c>
-      <c r="H77" s="9">
+      <c r="M77" s="9">
         <v>-38387</v>
       </c>
-      <c r="I77" s="9">
+      <c r="N77" s="9">
         <v>-111</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
+        <v>-250200</v>
+      </c>
+      <c r="F78" s="11">
+        <v>-336839</v>
+      </c>
+      <c r="G78" s="11">
+        <v>-1069233</v>
+      </c>
+      <c r="H78" s="11">
+        <v>-587864</v>
+      </c>
+      <c r="I78" s="11">
+        <v>-1025388</v>
+      </c>
+      <c r="J78" s="11">
         <v>-213078</v>
       </c>
-      <c r="F78" s="11">
+      <c r="K78" s="11">
         <v>-1113947</v>
       </c>
-      <c r="G78" s="11">
+      <c r="L78" s="11">
         <v>-771504</v>
       </c>
-      <c r="H78" s="11">
+      <c r="M78" s="11">
         <v>-622484</v>
       </c>
-      <c r="I78" s="11">
+      <c r="N78" s="11">
         <v>-148201</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
+        <v>-49014</v>
+      </c>
+      <c r="F79" s="9">
+        <v>-24880</v>
+      </c>
+      <c r="G79" s="9">
+        <v>4789</v>
+      </c>
+      <c r="H79" s="9">
+        <v>-20663</v>
+      </c>
+      <c r="I79" s="9">
+        <v>-32010</v>
+      </c>
+      <c r="J79" s="9">
         <v>-36323</v>
       </c>
-      <c r="F79" s="9">
+      <c r="K79" s="9">
         <v>-27502</v>
       </c>
-      <c r="G79" s="9">
+      <c r="L79" s="9">
         <v>-30463</v>
       </c>
-      <c r="H79" s="9">
+      <c r="M79" s="9">
         <v>-43556</v>
       </c>
-      <c r="I79" s="9">
+      <c r="N79" s="9">
         <v>-30676</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C80" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11">
+        <v>0</v>
+      </c>
+      <c r="F80" s="11">
+        <v>0</v>
+      </c>
+      <c r="G80" s="11">
+        <v>0</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" s="11">
+        <v>0</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" s="11">
+        <v>0</v>
+      </c>
+      <c r="L80" s="11">
+        <v>0</v>
+      </c>
+      <c r="M80" s="11">
+        <v>0</v>
+      </c>
+      <c r="N80" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="11">
-        <v>0</v>
-      </c>
-      <c r="G80" s="11">
-        <v>0</v>
-      </c>
-      <c r="H80" s="11">
-        <v>0</v>
-      </c>
-      <c r="I80" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B81" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
+        <v>-392353</v>
+      </c>
+      <c r="F81" s="13">
+        <v>-348388</v>
+      </c>
+      <c r="G81" s="13">
+        <v>-1782479</v>
+      </c>
+      <c r="H81" s="13">
+        <v>-711157</v>
+      </c>
+      <c r="I81" s="13">
+        <v>-1405859</v>
+      </c>
+      <c r="J81" s="13">
         <v>-722924</v>
       </c>
-      <c r="F81" s="13">
+      <c r="K81" s="13">
         <v>-2151446</v>
       </c>
-      <c r="G81" s="13">
+      <c r="L81" s="13">
         <v>-982683</v>
       </c>
-      <c r="H81" s="13">
+      <c r="M81" s="13">
         <v>-1798225</v>
       </c>
-      <c r="I81" s="13">
+      <c r="N81" s="13">
         <v>-751341</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2183,8 +3173,13 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2193,8 +3188,13 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2203,10 +3203,15 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -2225,8 +3230,23 @@
       <c r="I85" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N85" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2235,218 +3255,358 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
+        <v>12973</v>
+      </c>
+      <c r="F87" s="9">
+        <v>1</v>
+      </c>
+      <c r="G87" s="9">
+        <v>0</v>
+      </c>
+      <c r="H87" s="9">
+        <v>0</v>
+      </c>
+      <c r="I87" s="9">
+        <v>5743</v>
+      </c>
+      <c r="J87" s="9">
         <v>137000</v>
       </c>
-      <c r="F87" s="9">
+      <c r="K87" s="9">
         <v>98431</v>
       </c>
-      <c r="G87" s="9">
+      <c r="L87" s="9">
         <v>67261</v>
       </c>
-      <c r="H87" s="9">
+      <c r="M87" s="9">
         <v>131706</v>
       </c>
-      <c r="I87" s="9">
+      <c r="N87" s="9">
         <v>-34548</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D88" s="11"/>
-      <c r="E88" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H88" s="11" t="s">
-        <v>12</v>
+      <c r="E88" s="11">
+        <v>0</v>
+      </c>
+      <c r="F88" s="11">
+        <v>172</v>
+      </c>
+      <c r="G88" s="11">
+        <v>-172</v>
+      </c>
+      <c r="H88" s="11">
+        <v>0</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M88" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N88" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
+        <v>-434</v>
+      </c>
+      <c r="F89" s="9">
+        <v>3213</v>
+      </c>
+      <c r="G89" s="9">
+        <v>33203</v>
+      </c>
+      <c r="H89" s="9">
+        <v>0</v>
+      </c>
+      <c r="I89" s="9">
+        <v>20603</v>
+      </c>
+      <c r="J89" s="9">
         <v>-12127</v>
       </c>
-      <c r="F89" s="9">
+      <c r="K89" s="9">
         <v>42817</v>
       </c>
-      <c r="G89" s="9">
-        <v>0</v>
-      </c>
-      <c r="H89" s="9">
+      <c r="L89" s="9">
+        <v>0</v>
+      </c>
+      <c r="M89" s="9">
         <v>238</v>
       </c>
-      <c r="I89" s="9">
+      <c r="N89" s="9">
         <v>244</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
+        <v>0</v>
+      </c>
+      <c r="F90" s="11">
+        <v>0</v>
+      </c>
+      <c r="G90" s="11">
+        <v>167802</v>
+      </c>
+      <c r="H90" s="11">
+        <v>0</v>
+      </c>
+      <c r="I90" s="11">
+        <v>473</v>
+      </c>
+      <c r="J90" s="11">
         <v>-157</v>
       </c>
-      <c r="F90" s="11">
+      <c r="K90" s="11">
         <v>24604</v>
       </c>
-      <c r="G90" s="11">
-        <v>0</v>
-      </c>
-      <c r="H90" s="11">
+      <c r="L90" s="11">
+        <v>0</v>
+      </c>
+      <c r="M90" s="11">
         <v>309192</v>
       </c>
-      <c r="I90" s="11">
+      <c r="N90" s="11">
         <v>259029</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
+        <v>7747</v>
+      </c>
+      <c r="F91" s="9">
+        <v>10118</v>
+      </c>
+      <c r="G91" s="9">
+        <v>102099</v>
+      </c>
+      <c r="H91" s="9">
+        <v>13769</v>
+      </c>
+      <c r="I91" s="9">
+        <v>19945</v>
+      </c>
+      <c r="J91" s="9">
         <v>-17032</v>
       </c>
-      <c r="F91" s="9">
+      <c r="K91" s="9">
         <v>228409</v>
       </c>
-      <c r="G91" s="9">
+      <c r="L91" s="9">
         <v>20843</v>
       </c>
-      <c r="H91" s="9">
+      <c r="M91" s="9">
         <v>197</v>
       </c>
-      <c r="I91" s="9">
+      <c r="N91" s="9">
         <v>3759</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
+        <v>35145</v>
+      </c>
+      <c r="F92" s="11">
+        <v>218157</v>
+      </c>
+      <c r="G92" s="11">
+        <v>573328</v>
+      </c>
+      <c r="H92" s="11">
+        <v>304048</v>
+      </c>
+      <c r="I92" s="11">
+        <v>521030</v>
+      </c>
+      <c r="J92" s="11">
         <v>117410</v>
       </c>
-      <c r="F92" s="11">
+      <c r="K92" s="11">
         <v>108365</v>
       </c>
-      <c r="G92" s="11">
+      <c r="L92" s="11">
         <v>95511</v>
       </c>
-      <c r="H92" s="11">
+      <c r="M92" s="11">
         <v>372795</v>
       </c>
-      <c r="I92" s="11">
+      <c r="N92" s="11">
         <v>129122</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
+        <v>108449</v>
+      </c>
+      <c r="F93" s="9">
+        <v>71805</v>
+      </c>
+      <c r="G93" s="9">
+        <v>8107</v>
+      </c>
+      <c r="H93" s="9">
+        <v>66431</v>
+      </c>
+      <c r="I93" s="9">
+        <v>190570</v>
+      </c>
+      <c r="J93" s="9">
         <v>101122</v>
       </c>
-      <c r="F93" s="9">
+      <c r="K93" s="9">
         <v>116107</v>
       </c>
-      <c r="G93" s="9">
+      <c r="L93" s="9">
         <v>249906</v>
       </c>
-      <c r="H93" s="9">
+      <c r="M93" s="9">
         <v>110486</v>
       </c>
-      <c r="I93" s="9">
+      <c r="N93" s="9">
         <v>46316</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C94" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11">
+        <v>0</v>
+      </c>
+      <c r="F94" s="11">
+        <v>0</v>
+      </c>
+      <c r="G94" s="11">
+        <v>0</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" s="11">
+        <v>0</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" s="11">
+        <v>0</v>
+      </c>
+      <c r="L94" s="11">
+        <v>0</v>
+      </c>
+      <c r="M94" s="11">
+        <v>0</v>
+      </c>
+      <c r="N94" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="11">
-        <v>0</v>
-      </c>
-      <c r="G94" s="11">
-        <v>0</v>
-      </c>
-      <c r="H94" s="11">
-        <v>0</v>
-      </c>
-      <c r="I94" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B95" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
+        <v>163880</v>
+      </c>
+      <c r="F95" s="13">
+        <v>303466</v>
+      </c>
+      <c r="G95" s="13">
+        <v>884367</v>
+      </c>
+      <c r="H95" s="13">
+        <v>384248</v>
+      </c>
+      <c r="I95" s="13">
+        <v>758364</v>
+      </c>
+      <c r="J95" s="13">
         <v>326216</v>
       </c>
-      <c r="F95" s="13">
+      <c r="K95" s="13">
         <v>618733</v>
       </c>
-      <c r="G95" s="13">
+      <c r="L95" s="13">
         <v>433521</v>
       </c>
-      <c r="H95" s="13">
+      <c r="M95" s="13">
         <v>924614</v>
       </c>
-      <c r="I95" s="13">
+      <c r="N95" s="13">
         <v>403922</v>
       </c>
     </row>

--- a/database/industries/felezat/kimia/product/quarterly.xlsx
+++ b/database/industries/felezat/kimia/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\kimia\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\kimia\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5715613D-9B43-4DEF-8A02-83F22FD92EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEFCC40-5E57-4511-971D-49C923924CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="39">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Copyright @2015 - 2023</t>
   </si>
   <si>
-    <t>کیمیا-معدنی کیمیای زنجان گستران</t>
+    <t>کیمیا-ص. معدنی کیمیای زنجان گستران</t>
   </si>
   <si>
     <t>تولید و فروش</t>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>کنسانتره مس</t>
@@ -590,12 +590,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -610,7 +610,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -627,7 +627,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -644,7 +644,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -659,7 +659,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -676,7 +676,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -693,7 +693,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -708,7 +708,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -745,7 +745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -760,7 +760,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -799,7 +799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -838,7 +838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -852,32 +852,32 @@
       <c r="F12" s="9">
         <v>0</v>
       </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>17</v>
+      <c r="G12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="9">
+        <v>478</v>
       </c>
       <c r="I12" s="9">
-        <v>478</v>
+        <v>1348</v>
       </c>
       <c r="J12" s="9">
-        <v>1348</v>
+        <v>-110</v>
       </c>
       <c r="K12" s="9">
-        <v>-110</v>
+        <v>142</v>
       </c>
       <c r="L12" s="9">
-        <v>142</v>
+        <v>879</v>
       </c>
       <c r="M12" s="9">
-        <v>879</v>
+        <v>32</v>
       </c>
       <c r="N12" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -886,37 +886,37 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F13" s="11">
-        <v>17</v>
+        <v>260</v>
       </c>
       <c r="G13" s="11">
-        <v>260</v>
+        <v>107</v>
       </c>
       <c r="H13" s="11">
-        <v>107</v>
+        <v>224</v>
       </c>
       <c r="I13" s="11">
-        <v>224</v>
+        <v>122</v>
       </c>
       <c r="J13" s="11">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="K13" s="11">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="L13" s="11">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="M13" s="11">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="N13" s="11">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -925,37 +925,37 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>626</v>
+        <v>4183</v>
       </c>
       <c r="F14" s="9">
-        <v>4183</v>
+        <v>2341</v>
       </c>
       <c r="G14" s="9">
-        <v>2341</v>
+        <v>558</v>
       </c>
       <c r="H14" s="9">
-        <v>558</v>
+        <v>940</v>
       </c>
       <c r="I14" s="9">
-        <v>940</v>
+        <v>758</v>
       </c>
       <c r="J14" s="9">
-        <v>758</v>
+        <v>548</v>
       </c>
       <c r="K14" s="9">
-        <v>548</v>
+        <v>1780</v>
       </c>
       <c r="L14" s="9">
-        <v>1780</v>
+        <v>2788</v>
       </c>
       <c r="M14" s="9">
-        <v>2788</v>
+        <v>2343</v>
       </c>
       <c r="N14" s="9">
-        <v>2343</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6808</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -964,37 +964,37 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="F15" s="11">
-        <v>416</v>
+        <v>692</v>
       </c>
       <c r="G15" s="11">
-        <v>692</v>
+        <v>278</v>
       </c>
       <c r="H15" s="11">
-        <v>278</v>
+        <v>636</v>
       </c>
       <c r="I15" s="11">
-        <v>636</v>
+        <v>145</v>
       </c>
       <c r="J15" s="11">
-        <v>145</v>
+        <v>837</v>
       </c>
       <c r="K15" s="11">
-        <v>837</v>
+        <v>523</v>
       </c>
       <c r="L15" s="11">
-        <v>523</v>
+        <v>408</v>
       </c>
       <c r="M15" s="11">
-        <v>408</v>
+        <v>177</v>
       </c>
       <c r="N15" s="11">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1003,37 +1003,37 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>5375</v>
+        <v>6114</v>
       </c>
       <c r="F16" s="9">
-        <v>6114</v>
+        <v>23806</v>
       </c>
       <c r="G16" s="9">
-        <v>23806</v>
+        <v>9845</v>
       </c>
       <c r="H16" s="9">
-        <v>9845</v>
+        <v>17762</v>
       </c>
       <c r="I16" s="9">
-        <v>17762</v>
+        <v>-165</v>
       </c>
       <c r="J16" s="9">
-        <v>-165</v>
+        <v>17772</v>
       </c>
       <c r="K16" s="9">
-        <v>17772</v>
+        <v>10272</v>
       </c>
       <c r="L16" s="9">
-        <v>10272</v>
+        <v>9994</v>
       </c>
       <c r="M16" s="9">
-        <v>9994</v>
+        <v>3675</v>
       </c>
       <c r="N16" s="9">
-        <v>3675</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7506</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1042,37 +1042,37 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>34633</v>
+        <v>12189</v>
       </c>
       <c r="F17" s="11">
-        <v>12189</v>
+        <v>771</v>
       </c>
       <c r="G17" s="11">
-        <v>771</v>
+        <v>10368</v>
       </c>
       <c r="H17" s="11">
-        <v>10368</v>
+        <v>24260</v>
       </c>
       <c r="I17" s="11">
-        <v>24260</v>
+        <v>12495</v>
       </c>
       <c r="J17" s="11">
-        <v>12495</v>
+        <v>13056</v>
       </c>
       <c r="K17" s="11">
-        <v>13056</v>
+        <v>20026</v>
       </c>
       <c r="L17" s="11">
-        <v>20026</v>
+        <v>11003</v>
       </c>
       <c r="M17" s="11">
-        <v>11003</v>
+        <v>5500</v>
       </c>
       <c r="N17" s="11">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>27800</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1126,14 +1126,14 @@
       <c r="G19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>17</v>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
       </c>
       <c r="K19" s="11">
         <v>0</v>
@@ -1148,44 +1148,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>40977</v>
+        <v>22919</v>
       </c>
       <c r="F20" s="13">
-        <v>22919</v>
+        <v>27870</v>
       </c>
       <c r="G20" s="13">
-        <v>27870</v>
+        <v>21156</v>
       </c>
       <c r="H20" s="13">
-        <v>21156</v>
+        <v>44300</v>
       </c>
       <c r="I20" s="13">
-        <v>44300</v>
+        <v>14703</v>
       </c>
       <c r="J20" s="13">
-        <v>14703</v>
+        <v>32103</v>
       </c>
       <c r="K20" s="13">
-        <v>32103</v>
+        <v>32964</v>
       </c>
       <c r="L20" s="13">
-        <v>32964</v>
+        <v>25157</v>
       </c>
       <c r="M20" s="13">
-        <v>25157</v>
+        <v>11772</v>
       </c>
       <c r="N20" s="13">
-        <v>11772</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>42719</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1200,7 +1200,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1215,7 +1215,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1230,7 +1230,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>28</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1282,7 +1282,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>15</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>19</v>
       </c>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F27" s="11">
         <v>0</v>
@@ -1339,28 +1339,28 @@
         <v>0</v>
       </c>
       <c r="H27" s="11">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="I27" s="11">
-        <v>478</v>
-      </c>
-      <c r="J27" s="11">
         <v>810</v>
       </c>
-      <c r="K27" s="11" t="s">
-        <v>17</v>
+      <c r="J27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="11">
+        <v>246</v>
       </c>
       <c r="L27" s="11">
-        <v>246</v>
+        <v>775</v>
       </c>
       <c r="M27" s="11">
-        <v>775</v>
+        <v>32</v>
       </c>
       <c r="N27" s="11">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>29</v>
       </c>
@@ -1377,8 +1377,8 @@
       <c r="G28" s="9">
         <v>0</v>
       </c>
-      <c r="H28" s="9">
-        <v>0</v>
+      <c r="H28" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>17</v>
@@ -1399,7 +1399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>20</v>
       </c>
@@ -1408,37 +1408,37 @@
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F29" s="11">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="G29" s="11">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="H29" s="11">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I29" s="11">
-        <v>95</v>
-      </c>
-      <c r="J29" s="11">
-        <v>0</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
       </c>
       <c r="L29" s="11">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M29" s="11">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="N29" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>21</v>
       </c>
@@ -1450,34 +1450,34 @@
         <v>0</v>
       </c>
       <c r="F30" s="9">
-        <v>0</v>
+        <v>6070</v>
       </c>
       <c r="G30" s="9">
-        <v>6070</v>
+        <v>0</v>
       </c>
       <c r="H30" s="9">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="I30" s="9">
-        <v>184</v>
-      </c>
-      <c r="J30" s="9">
-        <v>0</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0</v>
       </c>
       <c r="L30" s="9">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="M30" s="9">
-        <v>4300</v>
+        <v>4322</v>
       </c>
       <c r="N30" s="9">
-        <v>4322</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>22</v>
       </c>
@@ -1486,37 +1486,37 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="F31" s="11">
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="G31" s="11">
-        <v>740</v>
+        <v>406</v>
       </c>
       <c r="H31" s="11">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <v>0</v>
       </c>
-      <c r="J31" s="11">
-        <v>0</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>17</v>
+      <c r="J31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="11">
+        <v>188</v>
       </c>
       <c r="L31" s="11">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="M31" s="11">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="N31" s="11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>23</v>
       </c>
@@ -1525,37 +1525,37 @@
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9">
-        <v>8391</v>
+        <v>6080</v>
       </c>
       <c r="F32" s="9">
-        <v>6080</v>
+        <v>24147</v>
       </c>
       <c r="G32" s="9">
-        <v>24147</v>
+        <v>9573</v>
       </c>
       <c r="H32" s="9">
-        <v>9573</v>
+        <v>15980</v>
       </c>
       <c r="I32" s="9">
-        <v>15980</v>
-      </c>
-      <c r="J32" s="9">
         <v>3748</v>
       </c>
-      <c r="K32" s="9" t="s">
-        <v>17</v>
+      <c r="J32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="9">
+        <v>7143</v>
       </c>
       <c r="L32" s="9">
-        <v>7143</v>
+        <v>9578</v>
       </c>
       <c r="M32" s="9">
-        <v>9578</v>
+        <v>3049</v>
       </c>
       <c r="N32" s="9">
-        <v>3049</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5373</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>24</v>
       </c>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="H33" s="11">
-        <v>0</v>
+        <v>34628</v>
       </c>
       <c r="I33" s="11">
-        <v>34628</v>
-      </c>
-      <c r="J33" s="11">
         <v>12495</v>
       </c>
-      <c r="K33" s="11" t="s">
-        <v>17</v>
+      <c r="J33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="11">
+        <v>20026</v>
       </c>
       <c r="L33" s="11">
-        <v>20026</v>
+        <v>11003</v>
       </c>
       <c r="M33" s="11">
-        <v>11003</v>
+        <v>5500</v>
       </c>
       <c r="N33" s="11">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>27800</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>25</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>26</v>
       </c>
@@ -1645,20 +1645,20 @@
       <c r="F35" s="11">
         <v>0</v>
       </c>
-      <c r="G35" s="11">
-        <v>0</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="11">
-        <v>0</v>
+      <c r="G35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="J35" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K35" s="11" t="s">
-        <v>17</v>
+      <c r="K35" s="11">
+        <v>0</v>
       </c>
       <c r="L35" s="11">
         <v>0</v>
@@ -1670,44 +1670,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>8892</v>
+        <v>6080</v>
       </c>
       <c r="F36" s="13">
-        <v>6080</v>
+        <v>31119</v>
       </c>
       <c r="G36" s="13">
-        <v>31119</v>
+        <v>9979</v>
       </c>
       <c r="H36" s="13">
-        <v>9979</v>
+        <v>51365</v>
       </c>
       <c r="I36" s="13">
-        <v>51365</v>
+        <v>17053</v>
       </c>
       <c r="J36" s="13">
-        <v>17053</v>
+        <v>0</v>
       </c>
       <c r="K36" s="13">
-        <v>0</v>
+        <v>27603</v>
       </c>
       <c r="L36" s="13">
-        <v>27603</v>
+        <v>25896</v>
       </c>
       <c r="M36" s="13">
-        <v>25896</v>
+        <v>12933</v>
       </c>
       <c r="N36" s="13">
-        <v>12933</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>39765</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1722,7 +1722,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1737,7 +1737,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1752,7 +1752,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>31</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1804,7 +1804,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>15</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>19</v>
       </c>
@@ -1852,37 +1852,37 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>26257</v>
+        <v>1</v>
       </c>
       <c r="F43" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" s="11">
         <v>0</v>
       </c>
       <c r="H43" s="11">
-        <v>0</v>
+        <v>308221</v>
       </c>
       <c r="I43" s="11">
-        <v>308221</v>
-      </c>
-      <c r="J43" s="11">
         <v>581207</v>
       </c>
-      <c r="K43" s="11" t="s">
-        <v>17</v>
+      <c r="J43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="11">
+        <v>214709</v>
       </c>
       <c r="L43" s="11">
-        <v>214709</v>
+        <v>654438</v>
       </c>
       <c r="M43" s="11">
-        <v>654438</v>
+        <v>34352</v>
       </c>
       <c r="N43" s="11">
-        <v>34352</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>641238</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>29</v>
       </c>
@@ -1891,16 +1891,16 @@
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="F44" s="9">
-        <v>172</v>
+        <v>-172</v>
       </c>
       <c r="G44" s="9">
-        <v>-172</v>
-      </c>
-      <c r="H44" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>17</v>
@@ -1921,7 +1921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>20</v>
       </c>
@@ -1930,37 +1930,37 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>11839</v>
+        <v>0</v>
       </c>
       <c r="F45" s="11">
-        <v>0</v>
+        <v>84839</v>
       </c>
       <c r="G45" s="11">
-        <v>84839</v>
+        <v>0</v>
       </c>
       <c r="H45" s="11">
-        <v>0</v>
+        <v>66370</v>
       </c>
       <c r="I45" s="11">
-        <v>66370</v>
-      </c>
-      <c r="J45" s="11">
-        <v>0</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="11">
+        <v>0</v>
       </c>
       <c r="L45" s="11">
-        <v>0</v>
+        <v>23381</v>
       </c>
       <c r="M45" s="11">
-        <v>23381</v>
+        <v>4564</v>
       </c>
       <c r="N45" s="11">
-        <v>4564</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>21</v>
       </c>
@@ -1972,34 +1972,34 @@
         <v>0</v>
       </c>
       <c r="F46" s="9">
-        <v>0</v>
+        <v>714061</v>
       </c>
       <c r="G46" s="9">
-        <v>714061</v>
+        <v>0</v>
       </c>
       <c r="H46" s="9">
-        <v>0</v>
+        <v>20634</v>
       </c>
       <c r="I46" s="9">
-        <v>20634</v>
-      </c>
-      <c r="J46" s="9">
-        <v>0</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0</v>
       </c>
       <c r="L46" s="9">
-        <v>0</v>
+        <v>857115</v>
       </c>
       <c r="M46" s="9">
-        <v>857115</v>
+        <v>758162</v>
       </c>
       <c r="N46" s="9">
-        <v>758162</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1484857</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>22</v>
       </c>
@@ -2008,37 +2008,37 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>75329</v>
+        <v>0</v>
       </c>
       <c r="F47" s="11">
-        <v>0</v>
+        <v>222239</v>
       </c>
       <c r="G47" s="11">
-        <v>222239</v>
+        <v>116399</v>
       </c>
       <c r="H47" s="11">
-        <v>116399</v>
+        <v>0</v>
       </c>
       <c r="I47" s="11">
         <v>0</v>
       </c>
-      <c r="J47" s="11">
-        <v>0</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>17</v>
+      <c r="J47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="11">
+        <v>54111</v>
       </c>
       <c r="L47" s="11">
-        <v>54111</v>
+        <v>38584</v>
       </c>
       <c r="M47" s="11">
-        <v>38584</v>
+        <v>3870</v>
       </c>
       <c r="N47" s="11">
-        <v>3870</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>23</v>
       </c>
@@ -2047,37 +2047,37 @@
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
-        <v>285345</v>
+        <v>554996</v>
       </c>
       <c r="F48" s="9">
-        <v>554996</v>
+        <v>1642561</v>
       </c>
       <c r="G48" s="9">
-        <v>1642561</v>
+        <v>891912</v>
       </c>
       <c r="H48" s="9">
-        <v>891912</v>
+        <v>1546418</v>
       </c>
       <c r="I48" s="9">
-        <v>1546418</v>
-      </c>
-      <c r="J48" s="9">
         <v>330488</v>
       </c>
-      <c r="K48" s="9" t="s">
-        <v>17</v>
+      <c r="J48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="9">
+        <v>867015</v>
       </c>
       <c r="L48" s="9">
-        <v>867015</v>
+        <v>995279</v>
       </c>
       <c r="M48" s="9">
-        <v>995279</v>
+        <v>277323</v>
       </c>
       <c r="N48" s="9">
-        <v>277323</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1009277</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>24</v>
       </c>
@@ -2086,37 +2086,37 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>157463</v>
+        <v>96685</v>
       </c>
       <c r="F49" s="11">
-        <v>96685</v>
+        <v>3318</v>
       </c>
       <c r="G49" s="11">
-        <v>3318</v>
+        <v>87094</v>
       </c>
       <c r="H49" s="11">
-        <v>87094</v>
+        <v>222580</v>
       </c>
       <c r="I49" s="11">
-        <v>222580</v>
-      </c>
-      <c r="J49" s="11">
         <v>137445</v>
       </c>
-      <c r="K49" s="11" t="s">
-        <v>17</v>
+      <c r="J49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="11">
+        <v>280369</v>
       </c>
       <c r="L49" s="11">
-        <v>280369</v>
+        <v>154042</v>
       </c>
       <c r="M49" s="11">
-        <v>154042</v>
+        <v>76992</v>
       </c>
       <c r="N49" s="11">
-        <v>76992</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>417001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>25</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>26</v>
       </c>
@@ -2164,25 +2164,25 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="F51" s="11">
-        <v>172</v>
-      </c>
-      <c r="G51" s="11">
-        <v>0</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I51" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="J51" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K51" s="11" t="s">
-        <v>17</v>
+      <c r="K51" s="11">
+        <v>0</v>
       </c>
       <c r="L51" s="11">
         <v>0</v>
@@ -2194,44 +2194,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
-        <v>556233</v>
+        <v>652026</v>
       </c>
       <c r="F52" s="13">
-        <v>652026</v>
+        <v>2666846</v>
       </c>
       <c r="G52" s="13">
-        <v>2666846</v>
+        <v>1095405</v>
       </c>
       <c r="H52" s="13">
-        <v>1095405</v>
+        <v>2164223</v>
       </c>
       <c r="I52" s="13">
-        <v>2164223</v>
+        <v>1049140</v>
       </c>
       <c r="J52" s="13">
-        <v>1049140</v>
+        <v>0</v>
       </c>
       <c r="K52" s="13">
-        <v>0</v>
+        <v>1416204</v>
       </c>
       <c r="L52" s="13">
-        <v>1416204</v>
+        <v>2722839</v>
       </c>
       <c r="M52" s="13">
-        <v>2722839</v>
+        <v>1155263</v>
       </c>
       <c r="N52" s="13">
-        <v>1155263</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3552373</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2246,7 +2246,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2261,7 +2261,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2276,7 +2276,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>33</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2328,7 +2328,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>15</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>19</v>
       </c>
@@ -2375,8 +2375,8 @@
         <v>34</v>
       </c>
       <c r="D59" s="11"/>
-      <c r="E59" s="11">
-        <v>525140000</v>
+      <c r="E59" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>17</v>
@@ -2384,29 +2384,29 @@
       <c r="G59" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H59" s="11" t="s">
-        <v>17</v>
+      <c r="H59" s="11">
+        <v>644813808</v>
       </c>
       <c r="I59" s="11">
-        <v>644813808</v>
+        <v>717539506</v>
       </c>
       <c r="J59" s="11">
-        <v>717539506</v>
+        <v>883081356</v>
       </c>
       <c r="K59" s="11">
-        <v>883081356</v>
+        <v>872800813</v>
       </c>
       <c r="L59" s="11">
-        <v>872800813</v>
+        <v>844436129</v>
       </c>
       <c r="M59" s="11">
-        <v>844436129</v>
+        <v>1073500000</v>
       </c>
       <c r="N59" s="11">
-        <v>1073500000</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1083172297</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>29</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>20</v>
       </c>
@@ -2453,38 +2453,38 @@
         <v>34</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11">
-        <v>408241379</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" s="11">
+      <c r="E61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="11">
         <v>523697531</v>
       </c>
-      <c r="H61" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I61" s="11">
+      <c r="G61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="11">
         <v>698631579</v>
       </c>
-      <c r="J61" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K61" s="11">
+      <c r="I61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="11">
         <v>613975207</v>
       </c>
-      <c r="L61" s="11" t="s">
-        <v>17</v>
+      <c r="K61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" s="11">
+        <v>334014286</v>
       </c>
       <c r="M61" s="11">
-        <v>334014286</v>
-      </c>
-      <c r="N61" s="11">
         <v>351076923</v>
       </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N61" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>21</v>
       </c>
@@ -2495,35 +2495,35 @@
       <c r="E62" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F62" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" s="9">
+      <c r="F62" s="9">
         <v>117637727</v>
       </c>
-      <c r="H62" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I62" s="9">
+      <c r="G62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="9">
         <v>112141304</v>
       </c>
-      <c r="J62" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K62" s="9">
+      <c r="I62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="9">
         <v>84394150</v>
       </c>
-      <c r="L62" s="9" t="s">
-        <v>17</v>
+      <c r="K62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L62" s="9">
+        <v>199329070</v>
       </c>
       <c r="M62" s="9">
-        <v>199329070</v>
+        <v>175419250</v>
       </c>
       <c r="N62" s="9">
-        <v>175419250</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>247476167</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>22</v>
       </c>
@@ -2531,38 +2531,38 @@
         <v>34</v>
       </c>
       <c r="D63" s="11"/>
-      <c r="E63" s="11">
-        <v>178504739</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>17</v>
+      <c r="E63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="11">
+        <v>300322973</v>
       </c>
       <c r="G63" s="11">
-        <v>300322973</v>
-      </c>
-      <c r="H63" s="11">
         <v>286697044</v>
       </c>
+      <c r="H63" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="I63" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J63" s="11" t="s">
-        <v>17</v>
+      <c r="J63" s="11">
+        <v>353590460</v>
       </c>
       <c r="K63" s="11">
-        <v>353590460</v>
+        <v>287824468</v>
       </c>
       <c r="L63" s="11">
-        <v>287824468</v>
+        <v>226964706</v>
       </c>
       <c r="M63" s="11">
-        <v>226964706</v>
-      </c>
-      <c r="N63" s="11">
         <v>227647059</v>
       </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N63" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>23</v>
       </c>
@@ -2571,37 +2571,37 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>34006078</v>
+        <v>91282237</v>
       </c>
       <c r="F64" s="9">
-        <v>91282237</v>
+        <v>68023398</v>
       </c>
       <c r="G64" s="9">
-        <v>68023398</v>
+        <v>93169539</v>
       </c>
       <c r="H64" s="9">
-        <v>93169539</v>
+        <v>96772090</v>
       </c>
       <c r="I64" s="9">
-        <v>96772090</v>
+        <v>88177161</v>
       </c>
       <c r="J64" s="9">
-        <v>88177161</v>
+        <v>133600612</v>
       </c>
       <c r="K64" s="9">
-        <v>133600612</v>
+        <v>121379672</v>
       </c>
       <c r="L64" s="9">
-        <v>121379672</v>
+        <v>103913030</v>
       </c>
       <c r="M64" s="9">
-        <v>103913030</v>
+        <v>90955395</v>
       </c>
       <c r="N64" s="9">
-        <v>90955395</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>187842360</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>24</v>
       </c>
@@ -2618,29 +2618,29 @@
       <c r="G65" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H65" s="11" t="s">
-        <v>17</v>
+      <c r="H65" s="11">
+        <v>6427746</v>
       </c>
       <c r="I65" s="11">
-        <v>6427746</v>
+        <v>11000000</v>
       </c>
       <c r="J65" s="11">
-        <v>11000000</v>
+        <v>10999464</v>
       </c>
       <c r="K65" s="11">
-        <v>10999464</v>
+        <v>14000250</v>
       </c>
       <c r="L65" s="11">
-        <v>14000250</v>
+        <v>14000000</v>
       </c>
       <c r="M65" s="11">
-        <v>14000000</v>
+        <v>13998545</v>
       </c>
       <c r="N65" s="11">
-        <v>13998545</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15000036</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>25</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>26</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2733,7 +2733,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2748,7 +2748,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2763,7 +2763,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>37</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2815,7 +2815,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>19</v>
       </c>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
-        <v>-13284</v>
+        <v>0</v>
       </c>
       <c r="F73" s="9">
         <v>0</v>
@@ -2833,28 +2833,28 @@
         <v>0</v>
       </c>
       <c r="H73" s="9">
-        <v>0</v>
+        <v>-302478</v>
       </c>
       <c r="I73" s="9">
-        <v>-302478</v>
+        <v>-444207</v>
       </c>
       <c r="J73" s="9">
-        <v>-444207</v>
+        <v>-162078</v>
       </c>
       <c r="K73" s="9">
-        <v>-162078</v>
+        <v>-147448</v>
       </c>
       <c r="L73" s="9">
-        <v>-147448</v>
+        <v>-522732</v>
       </c>
       <c r="M73" s="9">
-        <v>-522732</v>
+        <v>-68900</v>
       </c>
       <c r="N73" s="9">
-        <v>-68900</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-571118</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>29</v>
       </c>
@@ -2871,8 +2871,8 @@
       <c r="G74" s="11">
         <v>0</v>
       </c>
-      <c r="H74" s="11">
-        <v>0</v>
+      <c r="H74" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I74" s="11" t="s">
         <v>17</v>
@@ -2893,7 +2893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>20</v>
       </c>
@@ -2902,37 +2902,37 @@
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
-        <v>-12273</v>
+        <v>3213</v>
       </c>
       <c r="F75" s="9">
-        <v>3213</v>
+        <v>-51636</v>
       </c>
       <c r="G75" s="9">
-        <v>-51636</v>
+        <v>0</v>
       </c>
       <c r="H75" s="9">
-        <v>0</v>
+        <v>-45767</v>
       </c>
       <c r="I75" s="9">
-        <v>-45767</v>
+        <v>-12127</v>
       </c>
       <c r="J75" s="9">
-        <v>-12127</v>
+        <v>-31474</v>
       </c>
       <c r="K75" s="9">
-        <v>-31474</v>
+        <v>0</v>
       </c>
       <c r="L75" s="9">
-        <v>0</v>
+        <v>-23143</v>
       </c>
       <c r="M75" s="9">
-        <v>-23143</v>
+        <v>-4320</v>
       </c>
       <c r="N75" s="9">
-        <v>-4320</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>21</v>
       </c>
@@ -2944,34 +2944,34 @@
         <v>0</v>
       </c>
       <c r="F76" s="11">
-        <v>0</v>
+        <v>-546259</v>
       </c>
       <c r="G76" s="11">
-        <v>-546259</v>
+        <v>0</v>
       </c>
       <c r="H76" s="11">
-        <v>0</v>
+        <v>-20161</v>
       </c>
       <c r="I76" s="11">
-        <v>-20161</v>
+        <v>-157</v>
       </c>
       <c r="J76" s="11">
-        <v>-157</v>
+        <v>-437032</v>
       </c>
       <c r="K76" s="11">
-        <v>-437032</v>
+        <v>0</v>
       </c>
       <c r="L76" s="11">
-        <v>0</v>
+        <v>-547923</v>
       </c>
       <c r="M76" s="11">
-        <v>-547923</v>
+        <v>-499133</v>
       </c>
       <c r="N76" s="11">
-        <v>-499133</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-979334</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>22</v>
       </c>
@@ -2980,37 +2980,37 @@
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <v>-67582</v>
+        <v>10118</v>
       </c>
       <c r="F77" s="9">
-        <v>10118</v>
+        <v>-120140</v>
       </c>
       <c r="G77" s="9">
-        <v>-120140</v>
+        <v>-102630</v>
       </c>
       <c r="H77" s="9">
-        <v>-102630</v>
+        <v>19945</v>
       </c>
       <c r="I77" s="9">
-        <v>19945</v>
+        <v>-17032</v>
       </c>
       <c r="J77" s="9">
-        <v>-17032</v>
+        <v>-379413</v>
       </c>
       <c r="K77" s="9">
-        <v>-379413</v>
+        <v>-33268</v>
       </c>
       <c r="L77" s="9">
-        <v>-33268</v>
+        <v>-38387</v>
       </c>
       <c r="M77" s="9">
-        <v>-38387</v>
+        <v>-111</v>
       </c>
       <c r="N77" s="9">
-        <v>-111</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>23</v>
       </c>
@@ -3019,37 +3019,37 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>-250200</v>
+        <v>-336839</v>
       </c>
       <c r="F78" s="11">
-        <v>-336839</v>
+        <v>-1069233</v>
       </c>
       <c r="G78" s="11">
-        <v>-1069233</v>
+        <v>-587864</v>
       </c>
       <c r="H78" s="11">
-        <v>-587864</v>
+        <v>-1025388</v>
       </c>
       <c r="I78" s="11">
-        <v>-1025388</v>
+        <v>-213078</v>
       </c>
       <c r="J78" s="11">
-        <v>-213078</v>
+        <v>-1113947</v>
       </c>
       <c r="K78" s="11">
-        <v>-1113947</v>
+        <v>-771504</v>
       </c>
       <c r="L78" s="11">
-        <v>-771504</v>
+        <v>-622484</v>
       </c>
       <c r="M78" s="11">
-        <v>-622484</v>
+        <v>-148201</v>
       </c>
       <c r="N78" s="11">
-        <v>-148201</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-650619</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>24</v>
       </c>
@@ -3058,37 +3058,37 @@
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
-        <v>-49014</v>
+        <v>-24880</v>
       </c>
       <c r="F79" s="9">
-        <v>-24880</v>
+        <v>4789</v>
       </c>
       <c r="G79" s="9">
-        <v>4789</v>
+        <v>-20663</v>
       </c>
       <c r="H79" s="9">
-        <v>-20663</v>
+        <v>-32010</v>
       </c>
       <c r="I79" s="9">
-        <v>-32010</v>
+        <v>-36323</v>
       </c>
       <c r="J79" s="9">
-        <v>-36323</v>
+        <v>-27502</v>
       </c>
       <c r="K79" s="9">
-        <v>-27502</v>
+        <v>-30463</v>
       </c>
       <c r="L79" s="9">
-        <v>-30463</v>
+        <v>-43556</v>
       </c>
       <c r="M79" s="9">
-        <v>-43556</v>
+        <v>-30676</v>
       </c>
       <c r="N79" s="9">
-        <v>-30676</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-53869</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>26</v>
       </c>
@@ -3102,17 +3102,17 @@
       <c r="F80" s="11">
         <v>0</v>
       </c>
-      <c r="G80" s="11">
-        <v>0</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I80" s="11">
-        <v>0</v>
-      </c>
-      <c r="J80" s="11" t="s">
-        <v>17</v>
+      <c r="G80" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="11">
+        <v>0</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="11">
+        <v>0</v>
       </c>
       <c r="K80" s="11">
         <v>0</v>
@@ -3127,44 +3127,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
-        <v>-392353</v>
+        <v>-348388</v>
       </c>
       <c r="F81" s="13">
-        <v>-348388</v>
+        <v>-1782479</v>
       </c>
       <c r="G81" s="13">
-        <v>-1782479</v>
+        <v>-711157</v>
       </c>
       <c r="H81" s="13">
-        <v>-711157</v>
+        <v>-1405859</v>
       </c>
       <c r="I81" s="13">
-        <v>-1405859</v>
+        <v>-722924</v>
       </c>
       <c r="J81" s="13">
-        <v>-722924</v>
+        <v>-2151446</v>
       </c>
       <c r="K81" s="13">
-        <v>-2151446</v>
+        <v>-982683</v>
       </c>
       <c r="L81" s="13">
-        <v>-982683</v>
+        <v>-1798225</v>
       </c>
       <c r="M81" s="13">
-        <v>-1798225</v>
+        <v>-751341</v>
       </c>
       <c r="N81" s="13">
-        <v>-751341</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2253260</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3179,7 +3179,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3194,7 +3194,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3209,7 +3209,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B85" s="7" t="s">
         <v>38</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3261,7 +3261,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>19</v>
       </c>
@@ -3270,37 +3270,37 @@
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
-        <v>12973</v>
+        <v>1</v>
       </c>
       <c r="F87" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" s="9">
         <v>0</v>
       </c>
       <c r="H87" s="9">
-        <v>0</v>
+        <v>5743</v>
       </c>
       <c r="I87" s="9">
-        <v>5743</v>
+        <v>137000</v>
       </c>
       <c r="J87" s="9">
-        <v>137000</v>
+        <v>98431</v>
       </c>
       <c r="K87" s="9">
-        <v>98431</v>
+        <v>67261</v>
       </c>
       <c r="L87" s="9">
-        <v>67261</v>
+        <v>131706</v>
       </c>
       <c r="M87" s="9">
-        <v>131706</v>
+        <v>-34548</v>
       </c>
       <c r="N87" s="9">
-        <v>-34548</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>70120</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>29</v>
       </c>
@@ -3309,16 +3309,16 @@
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="F88" s="11">
-        <v>172</v>
+        <v>-172</v>
       </c>
       <c r="G88" s="11">
-        <v>-172</v>
-      </c>
-      <c r="H88" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I88" s="11" t="s">
         <v>17</v>
@@ -3339,7 +3339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>20</v>
       </c>
@@ -3348,37 +3348,37 @@
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
-        <v>-434</v>
+        <v>3213</v>
       </c>
       <c r="F89" s="9">
-        <v>3213</v>
+        <v>33203</v>
       </c>
       <c r="G89" s="9">
-        <v>33203</v>
+        <v>0</v>
       </c>
       <c r="H89" s="9">
-        <v>0</v>
+        <v>20603</v>
       </c>
       <c r="I89" s="9">
-        <v>20603</v>
+        <v>-12127</v>
       </c>
       <c r="J89" s="9">
-        <v>-12127</v>
+        <v>42817</v>
       </c>
       <c r="K89" s="9">
-        <v>42817</v>
+        <v>0</v>
       </c>
       <c r="L89" s="9">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="M89" s="9">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="N89" s="9">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>21</v>
       </c>
@@ -3390,34 +3390,34 @@
         <v>0</v>
       </c>
       <c r="F90" s="11">
-        <v>0</v>
+        <v>167802</v>
       </c>
       <c r="G90" s="11">
-        <v>167802</v>
+        <v>0</v>
       </c>
       <c r="H90" s="11">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="I90" s="11">
-        <v>473</v>
+        <v>-157</v>
       </c>
       <c r="J90" s="11">
-        <v>-157</v>
+        <v>24604</v>
       </c>
       <c r="K90" s="11">
-        <v>24604</v>
+        <v>0</v>
       </c>
       <c r="L90" s="11">
-        <v>0</v>
+        <v>309192</v>
       </c>
       <c r="M90" s="11">
-        <v>309192</v>
+        <v>259029</v>
       </c>
       <c r="N90" s="11">
-        <v>259029</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>505523</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>22</v>
       </c>
@@ -3426,37 +3426,37 @@
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>7747</v>
+        <v>10118</v>
       </c>
       <c r="F91" s="9">
-        <v>10118</v>
+        <v>102099</v>
       </c>
       <c r="G91" s="9">
-        <v>102099</v>
+        <v>13769</v>
       </c>
       <c r="H91" s="9">
-        <v>13769</v>
+        <v>19945</v>
       </c>
       <c r="I91" s="9">
-        <v>19945</v>
+        <v>-17032</v>
       </c>
       <c r="J91" s="9">
-        <v>-17032</v>
+        <v>228409</v>
       </c>
       <c r="K91" s="9">
-        <v>228409</v>
+        <v>20843</v>
       </c>
       <c r="L91" s="9">
-        <v>20843</v>
+        <v>197</v>
       </c>
       <c r="M91" s="9">
-        <v>197</v>
+        <v>3759</v>
       </c>
       <c r="N91" s="9">
-        <v>3759</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>23</v>
       </c>
@@ -3465,37 +3465,37 @@
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
-        <v>35145</v>
+        <v>218157</v>
       </c>
       <c r="F92" s="11">
-        <v>218157</v>
+        <v>573328</v>
       </c>
       <c r="G92" s="11">
-        <v>573328</v>
+        <v>304048</v>
       </c>
       <c r="H92" s="11">
-        <v>304048</v>
+        <v>521030</v>
       </c>
       <c r="I92" s="11">
-        <v>521030</v>
+        <v>117410</v>
       </c>
       <c r="J92" s="11">
-        <v>117410</v>
+        <v>108365</v>
       </c>
       <c r="K92" s="11">
-        <v>108365</v>
+        <v>95511</v>
       </c>
       <c r="L92" s="11">
-        <v>95511</v>
+        <v>372795</v>
       </c>
       <c r="M92" s="11">
-        <v>372795</v>
+        <v>129122</v>
       </c>
       <c r="N92" s="11">
-        <v>129122</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>358658</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>24</v>
       </c>
@@ -3504,37 +3504,37 @@
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
-        <v>108449</v>
+        <v>71805</v>
       </c>
       <c r="F93" s="9">
-        <v>71805</v>
+        <v>8107</v>
       </c>
       <c r="G93" s="9">
-        <v>8107</v>
+        <v>66431</v>
       </c>
       <c r="H93" s="9">
-        <v>66431</v>
+        <v>190570</v>
       </c>
       <c r="I93" s="9">
-        <v>190570</v>
+        <v>101122</v>
       </c>
       <c r="J93" s="9">
-        <v>101122</v>
+        <v>116107</v>
       </c>
       <c r="K93" s="9">
-        <v>116107</v>
+        <v>249906</v>
       </c>
       <c r="L93" s="9">
-        <v>249906</v>
+        <v>110486</v>
       </c>
       <c r="M93" s="9">
-        <v>110486</v>
+        <v>46316</v>
       </c>
       <c r="N93" s="9">
-        <v>46316</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>363132</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>26</v>
       </c>
@@ -3548,17 +3548,17 @@
       <c r="F94" s="11">
         <v>0</v>
       </c>
-      <c r="G94" s="11">
-        <v>0</v>
-      </c>
-      <c r="H94" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I94" s="11">
-        <v>0</v>
-      </c>
-      <c r="J94" s="11" t="s">
-        <v>17</v>
+      <c r="G94" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" s="11">
+        <v>0</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="11">
+        <v>0</v>
       </c>
       <c r="K94" s="11">
         <v>0</v>
@@ -3573,41 +3573,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
-        <v>163880</v>
+        <v>303466</v>
       </c>
       <c r="F95" s="13">
-        <v>303466</v>
+        <v>884367</v>
       </c>
       <c r="G95" s="13">
-        <v>884367</v>
+        <v>384248</v>
       </c>
       <c r="H95" s="13">
-        <v>384248</v>
+        <v>758364</v>
       </c>
       <c r="I95" s="13">
-        <v>758364</v>
+        <v>326216</v>
       </c>
       <c r="J95" s="13">
-        <v>326216</v>
+        <v>618733</v>
       </c>
       <c r="K95" s="13">
-        <v>618733</v>
+        <v>433521</v>
       </c>
       <c r="L95" s="13">
-        <v>433521</v>
+        <v>924614</v>
       </c>
       <c r="M95" s="13">
-        <v>924614</v>
+        <v>403922</v>
       </c>
       <c r="N95" s="13">
-        <v>403922</v>
+        <v>1299113</v>
       </c>
     </row>
   </sheetData>
